--- a/test-output/test.xlsx
+++ b/test-output/test.xlsx
@@ -8,46 +8,101 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\HUB\myProjects\test-automation-flipkz\test-output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718C7EBF-6784-48A1-B32B-5AFFD17D6862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093DD2A7-013A-4551-B3E5-0ED704176BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke Suite Test Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
-    <t>Test</t>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>website url</t>
+  </si>
+  <si>
+    <t>phone number</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>https://www.flip.kz/</t>
+  </si>
+  <si>
+    <t>testPassword123</t>
+  </si>
+  <si>
+    <t>8 705 296 60 64</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>wrong phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">none </t>
+  </si>
+  <si>
+    <t xml:space="preserve">full name </t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>entrance</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>postal code</t>
+  </si>
+  <si>
+    <t>Нур-Султан</t>
+  </si>
+  <si>
+    <t>Ожогов Владислав Владимирович</t>
+  </si>
+  <si>
+    <t>Байконыр р-н, пр. Республика</t>
+  </si>
+  <si>
+    <t>wrong address</t>
+  </si>
+  <si>
+    <t>new york</t>
   </si>
   <si>
     <t>status</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>wrong log in</t>
-  </si>
-  <si>
-    <t>log in</t>
-  </si>
-  <si>
-    <t>order with right credentials</t>
-  </si>
-  <si>
-    <t>order with wrong credentials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -69,6 +124,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -87,17 +149,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -314,15 +380,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M927"/>
+  <dimension ref="A1:K927"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="42.7109375" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="59.85546875" customWidth="1" collapsed="1"/>
@@ -331,14 +398,16 @@
     <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -347,52 +416,152 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
+      <c r="C11" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
+      <c r="B12">
+        <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4">
+        <v>100100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="17" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -4797,7 +4966,22 @@
       <c r="F927" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{015802A2-A10E-4475-9E5D-ADE16916BBA5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD72DBC-6217-4D09-853D-8DEFF9C9D654}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test-output/test.xlsx
+++ b/test-output/test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\HUB\myProjects\test-automation-flipkz\test-output\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>key</t>
   </si>
@@ -97,11 +97,18 @@
   <si>
     <t>status</t>
   </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -388,14 +395,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="42.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="59.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="67" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="42.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="59.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="67.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -425,7 +432,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -444,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -454,11 +461,11 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>88</v>
+      <c r="B5" t="s">
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">

--- a/test-output/test.xlsx
+++ b/test-output/test.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\HUB\myProjects\test-automation-flipkz\test-output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093DD2A7-013A-4551-B3E5-0ED704176BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C94DC4-DA2D-487A-B583-086CF1D92B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke Suite Test Cases" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>key</t>
   </si>
@@ -100,15 +100,11 @@
   <si>
     <t>PASSED</t>
   </si>
-  <si>
-    <t>FAILED</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -390,19 +386,19 @@
   <dimension ref="A1:K927"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="42.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="59.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="67.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="59.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="67" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="16" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -432,7 +428,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -451,7 +447,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -461,11 +457,11 @@
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>26</v>
+      <c r="B5">
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
